--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N2">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O2">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P2">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q2">
-        <v>119.6102631424422</v>
+        <v>2.525676614352667</v>
       </c>
       <c r="R2">
-        <v>1076.49236828198</v>
+        <v>22.731089529174</v>
       </c>
       <c r="S2">
-        <v>0.03873476850579804</v>
+        <v>0.001802603177395803</v>
       </c>
       <c r="T2">
-        <v>0.03873476850579805</v>
+        <v>0.001802603177395804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q3">
-        <v>346.8862117494511</v>
+        <v>7.464504406038556</v>
       </c>
       <c r="R3">
-        <v>3121.97590574506</v>
+        <v>67.180539654347</v>
       </c>
       <c r="S3">
-        <v>0.1123361554180917</v>
+        <v>0.005327498890216689</v>
       </c>
       <c r="T3">
-        <v>0.1123361554180917</v>
+        <v>0.005327498890216689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q4">
-        <v>1255.538514212522</v>
+        <v>27.01742661959612</v>
       </c>
       <c r="R4">
-        <v>11299.8466279127</v>
+        <v>243.156839576365</v>
       </c>
       <c r="S4">
-        <v>0.4065954912265289</v>
+        <v>0.01928263451971035</v>
       </c>
       <c r="T4">
-        <v>0.406595491226529</v>
+        <v>0.01928263451971035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N5">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O5">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P5">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q5">
-        <v>53.53962751859898</v>
+        <v>52.537657081026</v>
       </c>
       <c r="R5">
-        <v>481.8566476673909</v>
+        <v>472.838913729234</v>
       </c>
       <c r="S5">
-        <v>0.01733835394501116</v>
+        <v>0.03749670367497204</v>
       </c>
       <c r="T5">
-        <v>0.01733835394501117</v>
+        <v>0.03749670367497206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q6">
         <v>155.272282498753</v>
@@ -818,10 +818,10 @@
         <v>1397.450542488777</v>
       </c>
       <c r="S6">
-        <v>0.05028361078675637</v>
+        <v>0.1108195357248806</v>
       </c>
       <c r="T6">
-        <v>0.05028361078675638</v>
+        <v>0.1108195357248806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q7">
         <v>562.000806788135</v>
@@ -880,10 +880,10 @@
         <v>5058.007261093215</v>
       </c>
       <c r="S7">
-        <v>0.1819991911988838</v>
+        <v>0.4011061567654203</v>
       </c>
       <c r="T7">
-        <v>0.1819991911988838</v>
+        <v>0.4011061567654204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N8">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O8">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P8">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q8">
-        <v>41.33364267165888</v>
+        <v>40.56010183931334</v>
       </c>
       <c r="R8">
-        <v>372.00278404493</v>
+        <v>365.0409165538201</v>
       </c>
       <c r="S8">
-        <v>0.01338554935274589</v>
+        <v>0.02894819076819251</v>
       </c>
       <c r="T8">
-        <v>0.01338554935274589</v>
+        <v>0.02894819076819252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q9">
         <v>119.8732478926345</v>
@@ -1004,10 +1004,10 @@
         <v>1078.85923103371</v>
       </c>
       <c r="S9">
-        <v>0.03881993388501906</v>
+        <v>0.08555485540313328</v>
       </c>
       <c r="T9">
-        <v>0.03881993388501907</v>
+        <v>0.08555485540313329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q10">
         <v>433.8756469849389</v>
@@ -1066,10 +1066,10 @@
         <v>3904.88082286445</v>
       </c>
       <c r="S10">
-        <v>0.1405069456811648</v>
+        <v>0.3096618210760783</v>
       </c>
       <c r="T10">
-        <v>0.1405069456811649</v>
+        <v>0.3096618210760783</v>
       </c>
     </row>
   </sheetData>
